--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8719,6 +8719,258 @@
         <v>396.6868421052632</v>
       </c>
       <c r="D461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>387.6222222222222</v>
+      </c>
+      <c r="C462" t="n">
+        <v>387.3568421052632</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>399.1388888888889</v>
+      </c>
+      <c r="C463" t="n">
+        <v>396.5984210526316</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>390.6688888888889</v>
+      </c>
+      <c r="C464" t="n">
+        <v>393.1484210526315</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>389.7255555555556</v>
+      </c>
+      <c r="C465" t="n">
+        <v>404.3305263157895</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>392.5422222222222</v>
+      </c>
+      <c r="C466" t="n">
+        <v>397.9510526315789</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>394.4344444444445</v>
+      </c>
+      <c r="C467" t="n">
+        <v>395.4963157894737</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>406.2566666666667</v>
+      </c>
+      <c r="C468" t="n">
+        <v>418.2684210526315</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>382.3266666666667</v>
+      </c>
+      <c r="C469" t="n">
+        <v>391.4542105263158</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>399.0544444444445</v>
+      </c>
+      <c r="C470" t="n">
+        <v>403.4705263157895</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>394.9377777777778</v>
+      </c>
+      <c r="C471" t="n">
+        <v>402.8942105263158</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>405.4711111111111</v>
+      </c>
+      <c r="C472" t="n">
+        <v>406.6294736842105</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>390.6477777777778</v>
+      </c>
+      <c r="C473" t="n">
+        <v>383.5794736842105</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>399.2188888888889</v>
+      </c>
+      <c r="C474" t="n">
+        <v>399.8152631578947</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>396.0577777777777</v>
+      </c>
+      <c r="C475" t="n">
+        <v>400.4073684210526</v>
+      </c>
+      <c r="D475" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8735,7 +8987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B575"/>
+  <dimension ref="A1:B589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14493,6 +14745,146 @@
       </c>
       <c r="B575" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -14661,28 +15053,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.03956361780454809</v>
+        <v>0.03199137070965821</v>
       </c>
       <c r="J2" t="n">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K2" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005068853031061638</v>
+        <v>0.0003391789049812521</v>
       </c>
       <c r="M2" t="n">
-        <v>10.43299270139245</v>
+        <v>10.57526997165282</v>
       </c>
       <c r="N2" t="n">
-        <v>180.4645400346571</v>
+        <v>181.4393017399981</v>
       </c>
       <c r="O2" t="n">
-        <v>13.43370909446297</v>
+        <v>13.46994067321746</v>
       </c>
       <c r="P2" t="n">
-        <v>382.1516933112627</v>
+        <v>381.49748517507</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14738,28 +15130,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04444138777278643</v>
+        <v>0.01925350051218319</v>
       </c>
       <c r="J3" t="n">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K3" t="n">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006847211672666997</v>
+        <v>0.0001315393315630686</v>
       </c>
       <c r="M3" t="n">
-        <v>10.2325734439606</v>
+        <v>10.34604793645523</v>
       </c>
       <c r="N3" t="n">
-        <v>167.7629463784733</v>
+        <v>168.8163621428709</v>
       </c>
       <c r="O3" t="n">
-        <v>12.95233362674361</v>
+        <v>12.99293508576376</v>
       </c>
       <c r="P3" t="n">
-        <v>387.7300501421827</v>
+        <v>387.1467252609613</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14796,7 +15188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24918,6 +25310,314 @@
         </is>
       </c>
     </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-35.007527097779835,173.77697186429188</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-35.00747411079491,173.77786786104235</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-35.00742358965114,173.77696171687785</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-35.00739105047967,173.77785971764197</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>-35.00749971531133,173.77696917985025</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>-35.007422057961314,173.7778627576757</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-35.00750819369057,173.77697001102834</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-35.00732155682304,173.77785290435813</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-35.00748287838861,173.77696752924268</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-35.00737889346542,173.77785852574536</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-35.00746587169848,173.77696586199275</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-35.00740095584454,173.7778606887829</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-35.007359617332035,173.77695544536903</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-35.00719628753814,173.77784062276308</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-35.007574692544054,173.77697653025166</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-35.00743728497625,173.77786425056274</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>-35.0074243486109,173.7769617912823</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-35.007329286224426,173.77785366216202</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-35.00746134789892,173.7769654185024</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-35.00733446596402,173.7778541699927</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>-35.00736667765515,173.77695613752536</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-35.00730089462875,173.7778508786017</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-35.00749990505129,173.7769691984514</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-35.007508060557036,173.77787118955058</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>-35.007422870636624,173.7769616463894</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-35.007362138545346,173.77785688306204</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-35.00745128169589,173.77696443166323</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-35.00735681689511,173.77785636131782</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -14898,7 +14898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14989,35 +14989,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -15076,27 +15081,28 @@
       <c r="P2" t="n">
         <v>381.49748517507</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.7773134172678 -35.01101092103394, 173.77649716725645 -35.00268466744815)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.7773134172678</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.01101092103394</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.7764971672565</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.00268466744815</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.7769052922621</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.00684779424105</v>
       </c>
     </row>
@@ -15153,27 +15159,28 @@
       <c r="P3" t="n">
         <v>387.1467252609613</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.77820920446095 -35.010955546801526, 173.77739289619015 -35.002629295974714)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.7782092044609</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.01095554680153</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.7773928961902</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.00262929597471</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.7778010503255</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.00679242138812</v>
       </c>
     </row>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8971,6 +8971,96 @@
         <v>400.4073684210526</v>
       </c>
       <c r="D475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>401.2866666666667</v>
+      </c>
+      <c r="C476" t="n">
+        <v>404.1073684210527</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>401.6388888888889</v>
+      </c>
+      <c r="C477" t="n">
+        <v>408.2405263157895</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>388.5544444444445</v>
+      </c>
+      <c r="C478" t="n">
+        <v>391.421052631579</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>379.0066666666667</v>
+      </c>
+      <c r="C479" t="n">
+        <v>385.1063157894737</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>404.8633333333333</v>
+      </c>
+      <c r="C480" t="n">
+        <v>404.291052631579</v>
+      </c>
+      <c r="D480" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -8987,7 +9077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B589"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14885,6 +14975,56 @@
       </c>
       <c r="B589" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -15058,28 +15198,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03199137070965821</v>
+        <v>0.05551697171080033</v>
       </c>
       <c r="J2" t="n">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="K2" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003391789049812521</v>
+        <v>0.00102635300311682</v>
       </c>
       <c r="M2" t="n">
-        <v>10.57526997165282</v>
+        <v>10.6276976123908</v>
       </c>
       <c r="N2" t="n">
-        <v>181.4393017399981</v>
+        <v>182.1931246622235</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46994067321746</v>
+        <v>13.49789334163756</v>
       </c>
       <c r="P2" t="n">
-        <v>381.49748517507</v>
+        <v>381.2796289164096</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15136,28 +15276,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01925350051218319</v>
+        <v>0.0397523033726968</v>
       </c>
       <c r="J3" t="n">
+        <v>479</v>
+      </c>
+      <c r="K3" t="n">
         <v>474</v>
       </c>
-      <c r="K3" t="n">
-        <v>469</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.0001315393315630686</v>
+        <v>0.000565102139910012</v>
       </c>
       <c r="M3" t="n">
-        <v>10.34604793645523</v>
+        <v>10.37816237538761</v>
       </c>
       <c r="N3" t="n">
-        <v>168.8163621428709</v>
+        <v>169.0927628317863</v>
       </c>
       <c r="O3" t="n">
-        <v>12.99293508576376</v>
+        <v>13.00356731177204</v>
       </c>
       <c r="P3" t="n">
-        <v>387.1467252609613</v>
+        <v>386.9566564917818</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15195,7 +15335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25625,6 +25765,116 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>-35.007404286108816,173.7769598244592</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-35.0073235624939,173.77785310099756</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-35.00740112044771,173.7769595141144</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-35.0072864150095,173.77784945899603</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-35.007518719263786,173.77697104290343</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-35.00743758298865,173.7778642797805</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-35.007604531644766,173.77697945553538</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-35.00749433779548,173.77786984414095</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-35.00737214016823,173.77695667304098</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-35.00732191159971,173.77785293914104</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9061,6 +9061,78 @@
         <v>404.291052631579</v>
       </c>
       <c r="D480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>402.5566666666667</v>
+      </c>
+      <c r="C481" t="n">
+        <v>400.168947368421</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="C482" t="n">
+        <v>407.7952631578947</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>403.26</v>
+      </c>
+      <c r="C483" t="n">
+        <v>412.6457894736842</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>380.4133333333333</v>
+      </c>
+      <c r="C484" t="n">
+        <v>382.6421052631579</v>
+      </c>
+      <c r="D484" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9077,7 +9149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15025,6 +15097,46 @@
       </c>
       <c r="B594" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -15198,28 +15310,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05551697171080033</v>
+        <v>0.07820065645986084</v>
       </c>
       <c r="J2" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00102635300311682</v>
+        <v>0.002034561260474521</v>
       </c>
       <c r="M2" t="n">
-        <v>10.6276976123908</v>
+        <v>10.69394746630849</v>
       </c>
       <c r="N2" t="n">
-        <v>182.1931246622235</v>
+        <v>183.5543196522729</v>
       </c>
       <c r="O2" t="n">
-        <v>13.49789334163756</v>
+        <v>13.54822201073901</v>
       </c>
       <c r="P2" t="n">
-        <v>381.2796289164096</v>
+        <v>381.0681447214324</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15276,28 +15388,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0397523033726968</v>
+        <v>0.05865359644912197</v>
       </c>
       <c r="J3" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000565102139910012</v>
+        <v>0.001231512666392653</v>
       </c>
       <c r="M3" t="n">
-        <v>10.37816237538761</v>
+        <v>10.43443686289947</v>
       </c>
       <c r="N3" t="n">
-        <v>169.0927628317863</v>
+        <v>170.1090409576416</v>
       </c>
       <c r="O3" t="n">
-        <v>13.00356731177204</v>
+        <v>13.04258566993683</v>
       </c>
       <c r="P3" t="n">
-        <v>386.9566564917818</v>
+        <v>386.7801494843487</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15335,7 +15447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25875,6 +25987,94 @@
         </is>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-35.00739287175344,173.7769587054558</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-35.00735895974628,173.77785657140683</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-35.00735383525693,173.7769548785254</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-35.00729041689056,173.77784985134696</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-35.00738655041749,173.77695808574538</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-35.007246821930714,173.7778455772283</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-35.007591888973614,173.77697821610764</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-35.0075164853203,173.7778720155331</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9133,6 +9133,24 @@
         <v>382.6421052631579</v>
       </c>
       <c r="D484" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>389.1766666666667</v>
+      </c>
+      <c r="C485" t="n">
+        <v>392.2426315789473</v>
+      </c>
+      <c r="D485" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9149,7 +9167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15137,6 +15155,16 @@
       </c>
       <c r="B598" t="n">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -15310,28 +15338,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07820065645986084</v>
+        <v>0.08041584056749407</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K2" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002034561260474521</v>
+        <v>0.002158748817915224</v>
       </c>
       <c r="M2" t="n">
-        <v>10.69394746630849</v>
+        <v>10.68593719405996</v>
       </c>
       <c r="N2" t="n">
-        <v>183.5543196522729</v>
+        <v>183.2500082202208</v>
       </c>
       <c r="O2" t="n">
-        <v>13.54822201073901</v>
+        <v>13.53698667430166</v>
       </c>
       <c r="P2" t="n">
-        <v>381.0681447214324</v>
+        <v>381.0474325045375</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15388,28 +15416,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05865359644912197</v>
+        <v>0.06010578059286893</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K3" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001231512666392653</v>
+        <v>0.001298062575979975</v>
       </c>
       <c r="M3" t="n">
-        <v>10.43443686289947</v>
+        <v>10.42188884013059</v>
       </c>
       <c r="N3" t="n">
-        <v>170.1090409576416</v>
+        <v>169.7862692091905</v>
       </c>
       <c r="O3" t="n">
-        <v>13.04258566993683</v>
+        <v>13.03020603095709</v>
       </c>
       <c r="P3" t="n">
-        <v>386.7801494843487</v>
+        <v>386.766550016676</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15447,7 +15475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26075,6 +26103,28 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-35.00751312692887,173.77697049465857</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-35.00743019890344,173.7778635558299</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9151,6 +9151,60 @@
         <v>392.2426315789473</v>
       </c>
       <c r="D485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>386.4944444444445</v>
+      </c>
+      <c r="C486" t="n">
+        <v>392.1221052631579</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>387.5388888888889</v>
+      </c>
+      <c r="C487" t="n">
+        <v>396.2489473684211</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>394.9455555555555</v>
+      </c>
+      <c r="C488" t="n">
+        <v>395.8852631578947</v>
+      </c>
+      <c r="D488" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9167,7 +9221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B599"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15165,6 +15219,36 @@
       </c>
       <c r="B599" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -15338,28 +15422,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08041584056749407</v>
+        <v>0.08744126766101884</v>
       </c>
       <c r="J2" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002158748817915224</v>
+        <v>0.002576298578982228</v>
       </c>
       <c r="M2" t="n">
-        <v>10.68593719405996</v>
+        <v>10.66464438551294</v>
       </c>
       <c r="N2" t="n">
-        <v>183.2500082202208</v>
+        <v>182.4635117139201</v>
       </c>
       <c r="O2" t="n">
-        <v>13.53698667430166</v>
+        <v>13.50790552653964</v>
       </c>
       <c r="P2" t="n">
-        <v>381.0474325045375</v>
+        <v>380.9816251057944</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15416,28 +15500,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06010578059286893</v>
+        <v>0.06709343759397064</v>
       </c>
       <c r="J3" t="n">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001298062575979975</v>
+        <v>0.001633372729515026</v>
       </c>
       <c r="M3" t="n">
-        <v>10.42188884013059</v>
+        <v>10.4010840387176</v>
       </c>
       <c r="N3" t="n">
-        <v>169.7862692091905</v>
+        <v>169.0041525550128</v>
       </c>
       <c r="O3" t="n">
-        <v>13.03020603095709</v>
+        <v>13.00015971267326</v>
       </c>
       <c r="P3" t="n">
-        <v>386.766550016676</v>
+        <v>386.7010132486213</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15475,7 +15559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26125,6 +26209,72 @@
         </is>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-35.00753723388683,173.77697285798612</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-35.00743128215488,173.77786366203406</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-35.007527846753256,173.77697193771755</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-35.007394191435864,173.7778600255873</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-35.00746127799472,173.77696541164937</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-35.00739746011167,173.77786034605455</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9205,6 +9205,96 @@
         <v>395.8852631578947</v>
       </c>
       <c r="D488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>391.2711111111111</v>
+      </c>
+      <c r="C489" t="n">
+        <v>398.9315789473685</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>391.6555555555556</v>
+      </c>
+      <c r="C490" t="n">
+        <v>391.3578947368421</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>388.0144444444445</v>
+      </c>
+      <c r="C491" t="n">
+        <v>394.9105263157895</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>385.3633333333333</v>
+      </c>
+      <c r="C492" t="n">
+        <v>395.2173684210526</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>397.4122222222222</v>
+      </c>
+      <c r="C493" t="n">
+        <v>400.5336842105263</v>
+      </c>
+      <c r="D493" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9221,7 +9311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B602"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15249,6 +15339,56 @@
       </c>
       <c r="B602" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -15422,28 +15562,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08744126766101884</v>
+        <v>0.1005577663847841</v>
       </c>
       <c r="J2" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="K2" t="n">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002576298578982228</v>
+        <v>0.003455613291296067</v>
       </c>
       <c r="M2" t="n">
-        <v>10.66464438551294</v>
+        <v>10.6387033902498</v>
       </c>
       <c r="N2" t="n">
-        <v>182.4635117139201</v>
+        <v>181.3260261922766</v>
       </c>
       <c r="O2" t="n">
-        <v>13.50790552653964</v>
+        <v>13.46573526370828</v>
       </c>
       <c r="P2" t="n">
-        <v>380.9816251057944</v>
+        <v>380.8583589102424</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15500,28 +15640,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06709343759397064</v>
+        <v>0.08079821958784994</v>
       </c>
       <c r="J3" t="n">
+        <v>492</v>
+      </c>
+      <c r="K3" t="n">
         <v>487</v>
       </c>
-      <c r="K3" t="n">
-        <v>482</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.001633372729515026</v>
+        <v>0.002402776681669883</v>
       </c>
       <c r="M3" t="n">
-        <v>10.4010840387176</v>
+        <v>10.37951742165987</v>
       </c>
       <c r="N3" t="n">
-        <v>169.0041525550128</v>
+        <v>167.97544053887</v>
       </c>
       <c r="O3" t="n">
-        <v>13.00015971267326</v>
+        <v>12.96053396040726</v>
       </c>
       <c r="P3" t="n">
-        <v>386.7010132486213</v>
+        <v>386.5720212708109</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15559,7 +15699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26275,6 +26415,116 @@
         </is>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-35.007494302730024,173.7769686492278</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-35.00737008081266,173.7778576617365</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-35.00749084746593,173.77696831049101</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-35.00743815063132,173.77786433543335</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-35.00752357261158,173.7769715187017</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-35.00740622073045,173.77786120496253</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-35.00754739995273,173.7769738546177</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-35.00740346293306,173.7778609345827</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-35.00743910838089,173.7769632382539</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-35.00735568160974,173.77785625001235</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9295,6 +9295,96 @@
         <v>400.5336842105263</v>
       </c>
       <c r="D493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>397.1444444444445</v>
+      </c>
+      <c r="C494" t="n">
+        <v>398.091052631579</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>388.4311111111111</v>
+      </c>
+      <c r="C495" t="n">
+        <v>390.0726315789473</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>394.7155555555556</v>
+      </c>
+      <c r="C496" t="n">
+        <v>392.1242105263158</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>403.3966666666667</v>
+      </c>
+      <c r="C497" t="n">
+        <v>392.0663157894737</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>391.5688888888889</v>
+      </c>
+      <c r="C498" t="n">
+        <v>382.278947368421</v>
+      </c>
+      <c r="D498" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9311,7 +9401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15389,6 +15479,56 @@
       </c>
       <c r="B607" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -15562,28 +15702,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1005577663847841</v>
+        <v>0.120387263806932</v>
       </c>
       <c r="J2" t="n">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003455613291296067</v>
+        <v>0.004993898136871788</v>
       </c>
       <c r="M2" t="n">
-        <v>10.6387033902498</v>
+        <v>10.65480132271175</v>
       </c>
       <c r="N2" t="n">
-        <v>181.3260261922766</v>
+        <v>181.0738155500567</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46573526370828</v>
+        <v>13.45636710074665</v>
       </c>
       <c r="P2" t="n">
-        <v>380.8583589102424</v>
+        <v>380.6711682010709</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15640,28 +15780,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08079821958784994</v>
+        <v>0.08467972073293652</v>
       </c>
       <c r="J3" t="n">
+        <v>497</v>
+      </c>
+      <c r="K3" t="n">
         <v>492</v>
       </c>
-      <c r="K3" t="n">
-        <v>487</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.002402776681669883</v>
+        <v>0.002683367599927267</v>
       </c>
       <c r="M3" t="n">
-        <v>10.37951742165987</v>
+        <v>10.32458166684388</v>
       </c>
       <c r="N3" t="n">
-        <v>167.97544053887</v>
+        <v>166.5822255897282</v>
       </c>
       <c r="O3" t="n">
-        <v>12.96053396040726</v>
+        <v>12.90667368417317</v>
       </c>
       <c r="P3" t="n">
-        <v>386.5720212708109</v>
+        <v>386.5354510986656</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15699,7 +15839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26525,6 +26665,116 @@
         </is>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-35.00744151508223,173.77696347419453</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-35.0073776351908,173.77785840238178</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-35.00751982774446,173.7769711515734</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-35.00744970215984,173.77786546796878</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-35.00746334516141,173.77696561430386</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-35.00743126323347,173.77786366017895</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-35.00738532210104,173.77695796532774</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-35.00743178357259,173.77786371119407</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-35.00749162639829,173.77696838685364</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-35.00751974926564,173.77787233553758</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9385,6 +9385,42 @@
         <v>382.278947368421</v>
       </c>
       <c r="D498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>405.0366666666667</v>
+      </c>
+      <c r="C499" t="n">
+        <v>410.3</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>395.5666666666667</v>
+      </c>
+      <c r="C500" t="n">
+        <v>397.6526315789474</v>
+      </c>
+      <c r="D500" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9401,7 +9437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15529,6 +15565,36 @@
       </c>
       <c r="B612" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -15702,28 +15768,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.120387263806932</v>
+        <v>0.1316513357156652</v>
       </c>
       <c r="J2" t="n">
+        <v>499</v>
+      </c>
+      <c r="K2" t="n">
         <v>497</v>
       </c>
-      <c r="K2" t="n">
-        <v>495</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.004993898136871788</v>
+        <v>0.005971499936577418</v>
       </c>
       <c r="M2" t="n">
-        <v>10.65480132271175</v>
+        <v>10.68184133568258</v>
       </c>
       <c r="N2" t="n">
-        <v>181.0738155500567</v>
+        <v>181.5176421396419</v>
       </c>
       <c r="O2" t="n">
-        <v>13.45636710074665</v>
+        <v>13.47284833061079</v>
       </c>
       <c r="P2" t="n">
-        <v>380.6711682010709</v>
+        <v>380.5642636125741</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15780,28 +15846,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08467972073293652</v>
+        <v>0.09518735766939293</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K3" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002683367599927267</v>
+        <v>0.003391227970222399</v>
       </c>
       <c r="M3" t="n">
-        <v>10.32458166684388</v>
+        <v>10.34886382449006</v>
       </c>
       <c r="N3" t="n">
-        <v>166.5822255897282</v>
+        <v>166.9985826879573</v>
       </c>
       <c r="O3" t="n">
-        <v>12.90667368417317</v>
+        <v>12.92279314575442</v>
       </c>
       <c r="P3" t="n">
-        <v>386.5354510986656</v>
+        <v>386.4355951298236</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15839,7 +15905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26775,6 +26841,50 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-35.007370582303444,173.77695652031622</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-35.00726790512696,173.77784764425752</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-35.00745569564603,173.77696486438435</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-35.00738157557713,173.7778587887046</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9421,6 +9421,24 @@
         <v>397.6526315789474</v>
       </c>
       <c r="D500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>398.1288888888889</v>
+      </c>
+      <c r="C501" t="n">
+        <v>411.2784210526316</v>
+      </c>
+      <c r="D501" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9437,7 +9455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15595,6 +15613,16 @@
       </c>
       <c r="B615" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
@@ -15905,7 +15933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26885,6 +26913,28 @@
         </is>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-35.007432667209294,173.77696260679465</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-35.007259111395356,173.7778467821063</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -15796,28 +15796,28 @@
         <v>0.1149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1316513357156652</v>
+        <v>0.1364873086424884</v>
       </c>
       <c r="J2" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005971499936577418</v>
+        <v>0.006424958961504412</v>
       </c>
       <c r="M2" t="n">
-        <v>10.68184133568258</v>
+        <v>10.69013145704944</v>
       </c>
       <c r="N2" t="n">
-        <v>181.5176421396419</v>
+        <v>181.5513167437912</v>
       </c>
       <c r="O2" t="n">
-        <v>13.47284833061079</v>
+        <v>13.47409799369855</v>
       </c>
       <c r="P2" t="n">
-        <v>380.5642636125741</v>
+        <v>380.5181253534931</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15874,28 +15874,28 @@
         <v>0.123</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09518735766939293</v>
+        <v>0.1029198991292785</v>
       </c>
       <c r="J3" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003391227970222399</v>
+        <v>0.003953365773181727</v>
       </c>
       <c r="M3" t="n">
-        <v>10.34886382449006</v>
+        <v>10.37618092941686</v>
       </c>
       <c r="N3" t="n">
-        <v>166.9985826879573</v>
+        <v>167.6648677097652</v>
       </c>
       <c r="O3" t="n">
-        <v>12.92279314575442</v>
+        <v>12.94854693429982</v>
       </c>
       <c r="P3" t="n">
-        <v>386.4355951298236</v>
+        <v>386.3617157444596</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -15787,13 +15787,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0741</v>
+        <v>0.1029</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1149</v>
+        <v>0.1869</v>
       </c>
       <c r="I2" t="n">
         <v>0.1364843517786687</v>
@@ -15865,13 +15865,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.123</v>
+        <v>0.0897</v>
       </c>
       <c r="I3" t="n">
         <v>0.1029276537452661</v>

--- a/data/nzd0047/nzd0047.xlsx
+++ b/data/nzd0047/nzd0047.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9507,6 +9507,42 @@
         <v>397.22</v>
       </c>
       <c r="D504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>395.08</v>
+      </c>
+      <c r="C505" t="n">
+        <v>397</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>395.21</v>
+      </c>
+      <c r="C506" t="n">
+        <v>396.47</v>
+      </c>
+      <c r="D506" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -9523,7 +9559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15721,6 +15757,26 @@
       </c>
       <c r="B619" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -15888,34 +15944,34 @@
         <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1022</v>
+        <v>0.1023</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1875</v>
+        <v>0.1827</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1001550960585836</v>
+        <v>0.1081230486035387</v>
       </c>
       <c r="J2" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K2" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006162518486582669</v>
+        <v>0.007188448001179459</v>
       </c>
       <c r="M2" t="n">
-        <v>8.469828448028135</v>
+        <v>8.492017517588316</v>
       </c>
       <c r="N2" t="n">
-        <v>102.2216839679578</v>
+        <v>102.3660590161913</v>
       </c>
       <c r="O2" t="n">
-        <v>10.11047397345732</v>
+        <v>10.11761132956744</v>
       </c>
       <c r="P2" t="n">
-        <v>380.6713566964552</v>
+        <v>380.5948179912073</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15966,34 +16022,34 @@
         <v>0.075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0684</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0897</v>
+        <v>0.0893</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06772244742411339</v>
+        <v>0.0730582650128524</v>
       </c>
       <c r="J3" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K3" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002989161053816414</v>
+        <v>0.003493521170616409</v>
       </c>
       <c r="M3" t="n">
-        <v>8.205765461254337</v>
+        <v>8.212108596008337</v>
       </c>
       <c r="N3" t="n">
-        <v>96.66197066173417</v>
+        <v>96.52575085031273</v>
       </c>
       <c r="O3" t="n">
-        <v>9.831681985384504</v>
+        <v>9.824751948538585</v>
       </c>
       <c r="P3" t="n">
-        <v>387.0263227917661</v>
+        <v>386.9750701996861</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16031,7 +16087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27127,6 +27183,50 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-35.00746006965091,173.7769652931895</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-35.00738744121824,173.77785936378314</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-35.007458901252356,173.77696517864564</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-35.007392204686454,173.7778598308026</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
